--- a/presentation/maskstore.xlsx
+++ b/presentation/maskstore.xlsx
@@ -1131,11 +1131,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460754648"/>
-        <c:axId val="460753864"/>
+        <c:axId val="248129168"/>
+        <c:axId val="248129560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460754648"/>
+        <c:axId val="248129168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1245,14 +1245,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460753864"/>
+        <c:crossAx val="248129560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="400"/>
         <c:minorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460753864"/>
+        <c:axId val="248129560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -1302,7 +1302,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460754648"/>
+        <c:crossAx val="248129168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1328,12 +1328,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2433,7 +2428,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
